--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32I_Base_Instructions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32I_Base_Instructions.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aherrera\workspace\core-v-docs\verif\CV32E40P\VerificationPlan\base_instruction_set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C0501-FF9F-4C9D-85A9-A7EBF252373B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB622AD-D351-4183-8991-7A8E8C29F274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="590" yWindow="70" windowWidth="37260" windowHeight="19660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RV32I" sheetId="1" r:id="rId1"/>
+    <sheet name="RV32I" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -29,8 +29,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CB605BA4-E843-417A-93C2-ADE20C9EA930}</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{CB605BA4-E843-417A-93C2-ADE20C9EA930}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In a refactoring of the uvmt_cv32 environment, the functional coverage for all RV32 ISA instructions has been moved from class_coverage.svh to cv32/env/uvme_cv32/cov/uvme_rv32isa_covg.sv</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="214">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -54,9 +72,6 @@
   </si>
   <si>
     <t>Coverage Method</t>
-  </si>
-  <si>
-    <t>Link to Coverage</t>
   </si>
   <si>
     <t>ISA Chapter 2</t>
@@ -1310,12 +1325,18 @@
   <si>
     <t>// TODO : missing coverage group to  ensure all bits on all GPRs and all bits of immediates are toggled (check "stuck-at")</t>
   </si>
+  <si>
+    <t>Link to Coverage (see comment on this cell)</t>
+  </si>
+  <si>
+    <t>Note: the "HINT" instructions (rd == 0) have been stricken from this Vplan because they are redundant.  The rd == 0 condition is already covered above.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1354,8 +1375,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color theme="8" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,6 +1422,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1399,7 +1441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1409,21 +1451,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1431,13 +1461,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1455,11 +1479,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1544,6 +1595,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mike" id="{3E3EF737-1D26-4516-97C0-11B71CAC1CF7}" userId="Mike" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1841,1604 +1898,1640 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J1" dT="2020-09-17T20:05:08.24" personId="{3E3EF737-1D26-4516-97C0-11B71CAC1CF7}" id="{CB605BA4-E843-417A-93C2-ADE20C9EA930}">
+    <text>In a refactoring of the uvmt_cv32 environment, the functional coverage for all RV32 ISA instructions has been moved from class_coverage.svh to cv32/env/uvme_cv32/cov/uvme_rv32isa_covg.sv</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMB66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37D5184-1C62-497B-8D21-1B81168DE377}">
+  <dimension ref="B1:AMC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45:H65"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="51.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.36328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="34.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.36328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="54.54296875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="66" style="4" customWidth="1"/>
-    <col min="11" max="1014" width="17" style="4" customWidth="1"/>
-    <col min="1015" max="1016" width="9.08984375" style="4" customWidth="1"/>
-    <col min="1017" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="54.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="66" style="4" customWidth="1"/>
+    <col min="12" max="1015" width="17" style="4" customWidth="1"/>
+    <col min="1016" max="1017" width="9.140625" style="4" customWidth="1"/>
+    <col min="1018" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" s="4" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    <row r="29" spans="2:12" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="83" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="H34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="2:12" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="79.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E60" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E62" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E63" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="E64" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="65" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="14" t="s">
+      <c r="E65" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="140" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="22" t="s">
+      <c r="E66" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="79.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="J46" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="22"/>
-      <c r="J47" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="22"/>
-      <c r="J48" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="22"/>
-      <c r="J49" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="22"/>
-      <c r="J50" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="22"/>
-      <c r="J51" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="22"/>
-      <c r="J52" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="22"/>
-      <c r="J53" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="22"/>
-      <c r="J54" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="22"/>
-      <c r="J55" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="22"/>
-      <c r="J56" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="22"/>
-      <c r="J57" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="22"/>
-      <c r="J58" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="22"/>
-      <c r="J59" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="5" t="s">
+      <c r="F66" s="19"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="22"/>
-      <c r="J60" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="22"/>
-      <c r="J61" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="22"/>
-      <c r="J62" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="22"/>
-      <c r="J63" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="22"/>
-      <c r="J64" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="22"/>
-      <c r="J65" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A45:A65"/>
-    <mergeCell ref="B45:B65"/>
-    <mergeCell ref="F45:F65"/>
-    <mergeCell ref="G45:G65"/>
-    <mergeCell ref="H45:H65"/>
+  <mergeCells count="30">
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="B46:B66"/>
+    <mergeCell ref="C46:C66"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G38"/>
     <mergeCell ref="H34:H41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="I34:I41"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="F39:F41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I14:I23"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C25:C33"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="C14:C24"/>
     <mergeCell ref="G14:G23"/>
     <mergeCell ref="H14:H23"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="F14:F23"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>